--- a/data/Digital_Wallet_Controller.xlsx
+++ b/data/Digital_Wallet_Controller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\vodacom.payment_solution\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622CC1E7-A28C-485F-B65E-37845A124217}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B418672E-0F14-42A5-8E80-AA0AFD7FEA68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="3000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>CHROME</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Edit a card and proceed with the payment</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +514,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
